--- a/assets/excel/2021_1-3-4.xlsx
+++ b/assets/excel/2021_1-3-4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\GitHub\IM_Site\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C688C73B-682E-4940-AECD-69C5B8C6F878}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9155D83E-C474-48FE-A3BE-8F6C3AAA689F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13110" xr2:uid="{CEE988B5-480D-47C4-BBD8-A5583F460AE0}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="78">
   <si>
     <t>Migration und Teilhabe in Niedersachsen - Integrationsmonitoring 2021</t>
   </si>
@@ -276,6 +276,12 @@
   </si>
   <si>
     <t>/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Hochrechnung anhand der Bevölkerungsfortschreibung auf Basis des Zensus 2011. Die Hochrechnung für die Jahre vor 2011 sowie für bislang veröffentlichte Ergebnisse des Mikrozensus 2011-2013 basiert auf den fortgeschriebenen Ergebnissen der Volkszählung 1987. In 2016 erfolgte die Umstellung auf eine neue Mikrozensus-Stichprobe. Ab 2017 wird nur noch die Bevölkerung in Privathaushalten (ohne Gemeinschaftsunterkünfte) ausgewiesen. Dadurch ergibt sich jeweils eine eingeschränkte Vergleichbarkeit mit den Vorjahren. </t>
+  </si>
+  <si>
+    <t>4) Die Ergebnisse des Mikrozensus 2020 sind unter anderem aufgrund methodischer Effekte im Rahmen einer Neugestaltung der Erhebung sowie insbesondere aufgrund der Folgen der Corona-Pandemie in Ihrer Datenqualität eingeschränkt. Auf die Verwendung dieser Ergebnisse wird daher verzichtet. Weitere Informationen zur methodischen Neugestaltung des Mikrozensus ab 2020 und zu den Auswirkungen der Neugestaltung und der Corona-Krise auf die Ergebnisse des Jahres 2020 finden Sie auf der Informationsseite des Statistischen Bundesamtes</t>
   </si>
 </sst>
 </file>
@@ -475,41 +481,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -539,6 +521,36 @@
     </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -914,7 +926,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78D4D46-3CA9-4E6F-81C2-027A022D5669}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="B1:F163"/>
+  <dimension ref="B1:G164"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="B6" sqref="B6:B8"/>
@@ -950,2584 +962,2598 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
     </row>
     <row r="7" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10" t="s">
+      <c r="B7" s="17"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="12">
+      <c r="B8" s="17"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="22">
         <v>1000</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
     </row>
     <row r="9" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="14">
+      <c r="B9" s="6">
         <v>1</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="6">
         <v>2</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="6">
         <v>3</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="6">
         <v>4</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="7">
         <v>2019</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="8">
         <v>1069.568</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="8">
         <v>540.30200000000002</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="8">
         <v>529.26599999999996</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="9">
         <v>2019</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="10">
         <v>23.99</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="10">
         <v>12.865</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="10">
         <v>11.125</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="9">
         <v>2019</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="10">
         <v>7.8890000000000002</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="10">
         <v>4.0880000000000001</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="10">
         <v>3.8010000000000002</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="9">
         <v>2019</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="10">
         <v>24.66</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="10">
         <v>14.11</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="10">
         <v>10.548999999999999</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="9">
         <v>2019</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="10">
         <v>37.344999999999999</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="10">
         <v>22.067</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="10">
         <v>15.278</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="9">
         <v>2019</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="10">
         <v>16.245999999999999</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="10">
         <v>8.9369999999999994</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="10">
         <v>7.31</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="9">
         <v>2019</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="10">
         <v>41.393000000000001</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="10">
         <v>25.547000000000001</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="10">
         <v>15.845000000000001</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="9">
         <v>2019</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="10">
         <v>13.145</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="10">
         <v>6.4450000000000003</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="10">
         <v>6.7</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="9">
         <v>2019</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="10">
         <v>245.25299999999999</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="10">
         <v>120.11</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="10">
         <v>125.143</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="9">
         <v>2019</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="10">
         <v>6.6470000000000002</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="10">
         <v>3.766</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="10">
         <v>2.8809999999999998</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="9">
         <v>2019</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="10">
         <v>44.097000000000001</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="10">
         <v>23.337</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="10">
         <v>20.759</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="9">
         <v>2019</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="10">
         <v>17.314</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="10">
         <v>10.167</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="10">
         <v>7.1470000000000002</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="9">
         <v>2019</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="10">
         <v>19.812000000000001</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="10">
         <v>12.516</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="10">
         <v>7.2969999999999997</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="9">
         <v>2019</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="10">
         <v>522.29700000000003</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="10">
         <v>253.935</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="10">
         <v>268.36200000000002</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="9">
         <v>2019</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="10">
         <v>16.423999999999999</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="10">
         <v>7.7480000000000002</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="10">
         <v>8.6769999999999996</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="9">
         <v>2019</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="10">
         <v>44.127000000000002</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="10">
         <v>22.157</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="10">
         <v>21.969000000000001</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="9">
         <v>2019</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="10">
         <v>179.209</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="10">
         <v>83.475999999999999</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="10">
         <v>95.731999999999999</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C27" s="9">
         <v>2019</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="10">
         <v>20.809000000000001</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="10">
         <v>10.462999999999999</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="10">
         <v>10.346</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="9">
         <v>2019</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="10">
         <v>186.631</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="10">
         <v>94.712000000000003</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="10">
         <v>91.918999999999997</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29" s="9">
         <v>2019</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="10">
         <v>27.588999999999999</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="10">
         <v>12.117000000000001</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="10">
         <v>15.472</v>
       </c>
     </row>
-    <row r="30" spans="2:6" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="15" t="s">
+    <row r="30" spans="2:6" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="7">
         <v>2019</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="8">
         <v>547.27099999999996</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="8">
         <v>286.36700000000002</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="8">
         <v>260.904</v>
       </c>
     </row>
-    <row r="31" spans="2:6" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="15" t="s">
+    <row r="31" spans="2:6" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="7">
         <v>2019</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="8">
         <v>54.087000000000003</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="8">
         <v>34.247</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F31" s="8">
         <v>19.84</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="17">
+      <c r="C32" s="9">
         <v>2019</v>
       </c>
-      <c r="D32" s="18">
+      <c r="D32" s="10">
         <v>6.6779999999999999</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="10">
         <v>3.8340000000000001</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="10">
         <v>2.8439999999999999</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="17">
+      <c r="C33" s="9">
         <v>2019</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D33" s="10">
         <v>13.023999999999999</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="10">
         <v>9.3550000000000004</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="10">
         <v>3.669</v>
       </c>
     </row>
-    <row r="34" spans="2:6" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="15" t="s">
+    <row r="34" spans="2:6" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="7">
         <v>2019</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="8">
         <v>35.923999999999999</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="8">
         <v>17.594999999999999</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F34" s="8">
         <v>18.329000000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:6" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="15" t="s">
+    <row r="35" spans="2:6" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="7">
         <v>2019</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="8">
         <v>468.09999999999997</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="8">
         <v>246.27199999999999</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="8">
         <v>221.828</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="17">
+      <c r="C36" s="9">
         <v>2019</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="10">
         <v>38.106000000000002</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="10">
         <v>20.61</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="10">
         <v>17.495999999999999</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="17">
+      <c r="C37" s="9">
         <v>2019</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D37" s="10">
         <v>20.597000000000001</v>
       </c>
-      <c r="E37" s="18">
+      <c r="E37" s="10">
         <v>12.776</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="10">
         <v>7.8209999999999997</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="17">
+      <c r="C38" s="9">
         <v>2019</v>
       </c>
-      <c r="D38" s="18">
+      <c r="D38" s="10">
         <v>152.54300000000001</v>
       </c>
-      <c r="E38" s="18">
+      <c r="E38" s="10">
         <v>75.486999999999995</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="10">
         <v>77.055999999999997</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="17">
+      <c r="C39" s="9">
         <v>2019</v>
       </c>
-      <c r="D39" s="18">
+      <c r="D39" s="10">
         <v>94.406000000000006</v>
       </c>
-      <c r="E39" s="18">
+      <c r="E39" s="10">
         <v>55.947000000000003</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="10">
         <v>38.459000000000003</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="17">
+      <c r="C40" s="9">
         <v>2019</v>
       </c>
-      <c r="D40" s="18">
+      <c r="D40" s="10">
         <v>25.152999999999999</v>
       </c>
-      <c r="E40" s="18">
+      <c r="E40" s="10">
         <v>14.984999999999999</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="10">
         <v>10.167999999999999</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="17">
+      <c r="C41" s="9">
         <v>2019</v>
       </c>
-      <c r="D41" s="18">
+      <c r="D41" s="10">
         <v>18.515999999999998</v>
       </c>
-      <c r="E41" s="18">
+      <c r="E41" s="10">
         <v>9.1319999999999997</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F41" s="10">
         <v>9.3840000000000003</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="17">
+      <c r="C42" s="9">
         <v>2019</v>
       </c>
-      <c r="D42" s="18">
+      <c r="D42" s="10">
         <v>50.155999999999999</v>
       </c>
-      <c r="E42" s="18">
+      <c r="E42" s="10">
         <v>25.943999999999999</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="10">
         <v>24.212</v>
       </c>
     </row>
-    <row r="43" spans="2:6" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="15" t="s">
+    <row r="43" spans="2:6" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="15">
+      <c r="C43" s="7">
         <v>2019</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D43" s="8">
         <v>1750.7919999999999</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E43" s="8">
         <v>901.27700000000004</v>
       </c>
-      <c r="F43" s="16">
+      <c r="F43" s="8">
         <v>849.51499999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:6" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="15" t="s">
+    <row r="44" spans="2:6" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="15">
+      <c r="C44" s="7">
         <v>2018</v>
       </c>
-      <c r="D44" s="16">
+      <c r="D44" s="8">
         <v>1062</v>
       </c>
-      <c r="E44" s="16">
+      <c r="E44" s="8">
         <v>537</v>
       </c>
-      <c r="F44" s="16">
+      <c r="F44" s="8">
         <v>526</v>
       </c>
     </row>
     <row r="45" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="17">
+      <c r="C45" s="9">
         <v>2018</v>
       </c>
-      <c r="D45" s="18">
+      <c r="D45" s="10">
         <v>20</v>
       </c>
-      <c r="E45" s="18">
+      <c r="E45" s="10">
         <v>11</v>
       </c>
-      <c r="F45" s="18">
+      <c r="F45" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="17">
+      <c r="C46" s="9">
         <v>2018</v>
       </c>
-      <c r="D46" s="18">
+      <c r="D46" s="10">
         <v>23</v>
       </c>
-      <c r="E46" s="18">
+      <c r="E46" s="10">
         <v>12</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F46" s="10">
         <v>11</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="17">
+      <c r="C47" s="9">
         <v>2018</v>
       </c>
-      <c r="D47" s="18">
+      <c r="D47" s="10">
         <v>39</v>
       </c>
-      <c r="E47" s="18">
+      <c r="E47" s="10">
         <v>23</v>
       </c>
-      <c r="F47" s="18">
+      <c r="F47" s="10">
         <v>16</v>
       </c>
     </row>
     <row r="48" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="17">
+      <c r="C48" s="9">
         <v>2018</v>
       </c>
-      <c r="D48" s="18">
+      <c r="D48" s="10">
         <v>48</v>
       </c>
-      <c r="E48" s="18">
+      <c r="E48" s="10">
         <v>29</v>
       </c>
-      <c r="F48" s="18">
+      <c r="F48" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="49" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="17">
+      <c r="C49" s="9">
         <v>2018</v>
       </c>
-      <c r="D49" s="18">
+      <c r="D49" s="10">
         <v>255</v>
       </c>
-      <c r="E49" s="18">
+      <c r="E49" s="10">
         <v>125</v>
       </c>
-      <c r="F49" s="18">
+      <c r="F49" s="10">
         <v>130</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="17">
+      <c r="C50" s="9">
         <v>2018</v>
       </c>
-      <c r="D50" s="18">
+      <c r="D50" s="10">
         <v>41</v>
       </c>
-      <c r="E50" s="18">
+      <c r="E50" s="10">
         <v>22</v>
       </c>
-      <c r="F50" s="18">
+      <c r="F50" s="10">
         <v>19</v>
       </c>
     </row>
     <row r="51" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="17">
+      <c r="C51" s="9">
         <v>2018</v>
       </c>
-      <c r="D51" s="18">
+      <c r="D51" s="10">
         <v>18</v>
       </c>
-      <c r="E51" s="18">
+      <c r="E51" s="10">
         <v>9</v>
       </c>
-      <c r="F51" s="18">
+      <c r="F51" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="52" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="17">
+      <c r="C52" s="9">
         <v>2018</v>
       </c>
-      <c r="D52" s="18">
+      <c r="D52" s="10">
         <v>17</v>
       </c>
-      <c r="E52" s="18">
+      <c r="E52" s="10">
         <v>11</v>
       </c>
-      <c r="F52" s="18">
+      <c r="F52" s="10">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="17">
+      <c r="C53" s="9">
         <v>2018</v>
       </c>
-      <c r="D53" s="18">
+      <c r="D53" s="10">
         <v>41</v>
       </c>
-      <c r="E53" s="18">
+      <c r="E53" s="10">
         <v>22</v>
       </c>
-      <c r="F53" s="18">
+      <c r="F53" s="10">
         <v>19</v>
       </c>
     </row>
     <row r="54" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="17" t="s">
+      <c r="B54" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="17">
+      <c r="C54" s="9">
         <v>2018</v>
       </c>
-      <c r="D54" s="18">
+      <c r="D54" s="10">
         <v>178</v>
       </c>
-      <c r="E54" s="18">
+      <c r="E54" s="10">
         <v>85</v>
       </c>
-      <c r="F54" s="18">
+      <c r="F54" s="10">
         <v>94</v>
       </c>
     </row>
     <row r="55" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="17" t="s">
+      <c r="B55" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C55" s="17">
+      <c r="C55" s="9">
         <v>2018</v>
       </c>
-      <c r="D55" s="18">
+      <c r="D55" s="10">
         <v>19</v>
       </c>
-      <c r="E55" s="18">
+      <c r="E55" s="10">
         <v>10</v>
       </c>
-      <c r="F55" s="18">
+      <c r="F55" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="56" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="17" t="s">
+      <c r="B56" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="17">
+      <c r="C56" s="9">
         <v>2018</v>
       </c>
-      <c r="D56" s="18">
+      <c r="D56" s="10">
         <v>182</v>
       </c>
-      <c r="E56" s="18">
+      <c r="E56" s="10">
         <v>92</v>
       </c>
-      <c r="F56" s="18">
+      <c r="F56" s="10">
         <v>89</v>
       </c>
     </row>
     <row r="57" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="17">
+      <c r="C57" s="9">
         <v>2018</v>
       </c>
-      <c r="D57" s="18">
+      <c r="D57" s="10">
         <v>29</v>
       </c>
-      <c r="E57" s="18">
+      <c r="E57" s="10">
         <v>12</v>
       </c>
-      <c r="F57" s="18">
+      <c r="F57" s="10">
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="2:6" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="15" t="s">
+    <row r="58" spans="2:6" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C58" s="15">
+      <c r="C58" s="7">
         <v>2018</v>
       </c>
-      <c r="D58" s="16">
+      <c r="D58" s="8">
         <v>560</v>
       </c>
-      <c r="E58" s="16">
+      <c r="E58" s="8">
         <v>291</v>
       </c>
-      <c r="F58" s="16">
+      <c r="F58" s="8">
         <v>268</v>
       </c>
     </row>
-    <row r="59" spans="2:6" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="15" t="s">
+    <row r="59" spans="2:6" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C59" s="15">
+      <c r="C59" s="7">
         <v>2018</v>
       </c>
-      <c r="D59" s="16">
+      <c r="D59" s="8">
         <v>49</v>
       </c>
-      <c r="E59" s="16">
+      <c r="E59" s="8">
         <v>33</v>
       </c>
-      <c r="F59" s="16">
+      <c r="F59" s="8">
         <v>16</v>
       </c>
     </row>
     <row r="60" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C60" s="17">
+      <c r="C60" s="9">
         <v>2018</v>
       </c>
-      <c r="D60" s="18">
+      <c r="D60" s="10">
         <v>14</v>
       </c>
-      <c r="E60" s="18">
+      <c r="E60" s="10">
         <v>9</v>
       </c>
-      <c r="F60" s="18" t="s">
+      <c r="F60" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="2:6" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="15" t="s">
+    <row r="61" spans="2:6" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B61" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C61" s="15">
+      <c r="C61" s="7">
         <v>2018</v>
       </c>
-      <c r="D61" s="16">
+      <c r="D61" s="8">
         <v>35</v>
       </c>
-      <c r="E61" s="16">
+      <c r="E61" s="8">
         <v>15</v>
       </c>
-      <c r="F61" s="16">
+      <c r="F61" s="8">
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="2:6" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="15" t="s">
+    <row r="62" spans="2:6" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B62" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C62" s="15">
+      <c r="C62" s="7">
         <v>2018</v>
       </c>
-      <c r="D62" s="16">
+      <c r="D62" s="8">
         <v>471</v>
       </c>
-      <c r="E62" s="16">
+      <c r="E62" s="8">
         <v>249</v>
       </c>
-      <c r="F62" s="16">
+      <c r="F62" s="8">
         <v>223</v>
       </c>
     </row>
     <row r="63" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="17" t="s">
+      <c r="B63" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="17">
+      <c r="C63" s="9">
         <v>2018</v>
       </c>
-      <c r="D63" s="18">
+      <c r="D63" s="10">
         <v>31</v>
       </c>
-      <c r="E63" s="18">
+      <c r="E63" s="10">
         <v>20</v>
       </c>
-      <c r="F63" s="18">
+      <c r="F63" s="10">
         <v>11</v>
       </c>
     </row>
     <row r="64" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="17" t="s">
+      <c r="B64" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C64" s="17">
+      <c r="C64" s="9">
         <v>2018</v>
       </c>
-      <c r="D64" s="18">
+      <c r="D64" s="10">
         <v>20</v>
       </c>
-      <c r="E64" s="18">
+      <c r="E64" s="10">
         <v>12</v>
       </c>
-      <c r="F64" s="18">
+      <c r="F64" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="65" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="17" t="s">
+      <c r="B65" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C65" s="17">
+      <c r="C65" s="9">
         <v>2018</v>
       </c>
-      <c r="D65" s="18">
+      <c r="D65" s="10">
         <v>163</v>
       </c>
-      <c r="E65" s="18">
+      <c r="E65" s="10">
         <v>81</v>
       </c>
-      <c r="F65" s="18">
+      <c r="F65" s="10">
         <v>83</v>
       </c>
     </row>
     <row r="66" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="17" t="s">
+      <c r="B66" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C66" s="17">
+      <c r="C66" s="9">
         <v>2018</v>
       </c>
-      <c r="D66" s="18">
+      <c r="D66" s="10">
         <v>99</v>
       </c>
-      <c r="E66" s="18">
+      <c r="E66" s="10">
         <v>58</v>
       </c>
-      <c r="F66" s="18">
+      <c r="F66" s="10">
         <v>40</v>
       </c>
     </row>
     <row r="67" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="17" t="s">
+      <c r="B67" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C67" s="17">
+      <c r="C67" s="9">
         <v>2018</v>
       </c>
-      <c r="D67" s="18">
+      <c r="D67" s="10">
         <v>21</v>
       </c>
-      <c r="E67" s="18">
+      <c r="E67" s="10">
         <v>12</v>
       </c>
-      <c r="F67" s="18">
+      <c r="F67" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="68" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="17" t="s">
+      <c r="B68" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C68" s="17">
+      <c r="C68" s="9">
         <v>2018</v>
       </c>
-      <c r="D68" s="18">
+      <c r="D68" s="10">
         <v>22</v>
       </c>
-      <c r="E68" s="18">
+      <c r="E68" s="10">
         <v>11</v>
       </c>
-      <c r="F68" s="18">
+      <c r="F68" s="10">
         <v>12</v>
       </c>
     </row>
     <row r="69" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="17" t="s">
+      <c r="B69" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C69" s="17">
+      <c r="C69" s="9">
         <v>2018</v>
       </c>
-      <c r="D69" s="18">
+      <c r="D69" s="10">
         <v>39</v>
       </c>
-      <c r="E69" s="18">
+      <c r="E69" s="10">
         <v>21</v>
       </c>
-      <c r="F69" s="18">
+      <c r="F69" s="10">
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="2:6" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="15" t="s">
+    <row r="70" spans="2:6" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B70" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C70" s="15">
+      <c r="C70" s="7">
         <v>2018</v>
       </c>
-      <c r="D70" s="16">
+      <c r="D70" s="8">
         <v>1726</v>
       </c>
-      <c r="E70" s="16">
+      <c r="E70" s="8">
         <v>890</v>
       </c>
-      <c r="F70" s="16">
+      <c r="F70" s="8">
         <v>836</v>
       </c>
     </row>
-    <row r="71" spans="2:6" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="15" t="s">
+    <row r="71" spans="2:6" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B71" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C71" s="15">
+      <c r="C71" s="7">
         <v>2017</v>
       </c>
-      <c r="D71" s="16">
+      <c r="D71" s="8">
         <v>1063.5999999999999</v>
       </c>
-      <c r="E71" s="16">
+      <c r="E71" s="8">
         <v>547</v>
       </c>
-      <c r="F71" s="16">
+      <c r="F71" s="8">
         <v>516.6</v>
       </c>
     </row>
     <row r="72" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="17" t="s">
+      <c r="B72" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C72" s="17">
+      <c r="C72" s="9">
         <v>2017</v>
       </c>
-      <c r="D72" s="18">
+      <c r="D72" s="10">
         <v>18.7</v>
       </c>
-      <c r="E72" s="18">
+      <c r="E72" s="10">
         <v>10.199999999999999</v>
       </c>
-      <c r="F72" s="18">
+      <c r="F72" s="10">
         <v>8.6</v>
       </c>
     </row>
     <row r="73" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="17" t="s">
+      <c r="B73" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C73" s="17">
+      <c r="C73" s="9">
         <v>2017</v>
       </c>
-      <c r="D73" s="18">
+      <c r="D73" s="10">
         <v>20.8</v>
       </c>
-      <c r="E73" s="18">
+      <c r="E73" s="10">
         <v>11.7</v>
       </c>
-      <c r="F73" s="18">
+      <c r="F73" s="10">
         <v>9.1</v>
       </c>
     </row>
     <row r="74" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="17" t="s">
+      <c r="B74" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C74" s="17">
+      <c r="C74" s="9">
         <v>2017</v>
       </c>
-      <c r="D74" s="18">
+      <c r="D74" s="10">
         <v>35.200000000000003</v>
       </c>
-      <c r="E74" s="18">
+      <c r="E74" s="10">
         <v>22.4</v>
       </c>
-      <c r="F74" s="18">
+      <c r="F74" s="10">
         <v>12.7</v>
       </c>
     </row>
     <row r="75" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="17" t="s">
+      <c r="B75" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C75" s="17">
+      <c r="C75" s="9">
         <v>2017</v>
       </c>
-      <c r="D75" s="18">
+      <c r="D75" s="10">
         <v>41.6</v>
       </c>
-      <c r="E75" s="18">
+      <c r="E75" s="10">
         <v>26.1</v>
       </c>
-      <c r="F75" s="18">
+      <c r="F75" s="10">
         <v>15.6</v>
       </c>
     </row>
     <row r="76" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="17" t="s">
+      <c r="B76" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C76" s="17">
+      <c r="C76" s="9">
         <v>2017</v>
       </c>
-      <c r="D76" s="18">
+      <c r="D76" s="10">
         <v>245.1</v>
       </c>
-      <c r="E76" s="18">
+      <c r="E76" s="10">
         <v>119</v>
       </c>
-      <c r="F76" s="18">
+      <c r="F76" s="10">
         <v>126.1</v>
       </c>
     </row>
     <row r="77" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="17" t="s">
+      <c r="B77" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C77" s="17">
+      <c r="C77" s="9">
         <v>2017</v>
       </c>
-      <c r="D77" s="18">
+      <c r="D77" s="10">
         <v>38.200000000000003</v>
       </c>
-      <c r="E77" s="18">
+      <c r="E77" s="10">
         <v>20.5</v>
       </c>
-      <c r="F77" s="18">
+      <c r="F77" s="10">
         <v>17.7</v>
       </c>
     </row>
     <row r="78" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="17" t="s">
+      <c r="B78" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C78" s="17">
+      <c r="C78" s="9">
         <v>2017</v>
       </c>
-      <c r="D78" s="18">
+      <c r="D78" s="10">
         <v>16.3</v>
       </c>
-      <c r="E78" s="18">
+      <c r="E78" s="10">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F78" s="18">
+      <c r="F78" s="10">
         <v>8.1</v>
       </c>
     </row>
     <row r="79" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="17" t="s">
+      <c r="B79" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C79" s="17">
+      <c r="C79" s="9">
         <v>2017</v>
       </c>
-      <c r="D79" s="18">
+      <c r="D79" s="10">
         <v>16.2</v>
       </c>
-      <c r="E79" s="18">
+      <c r="E79" s="10">
         <v>11.7</v>
       </c>
-      <c r="F79" s="18">
+      <c r="F79" s="10">
         <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="80" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="17" t="s">
+      <c r="B80" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C80" s="17">
+      <c r="C80" s="9">
         <v>2017</v>
       </c>
-      <c r="D80" s="18">
+      <c r="D80" s="10">
         <v>39.299999999999997</v>
       </c>
-      <c r="E80" s="18">
+      <c r="E80" s="10">
         <v>21.3</v>
       </c>
-      <c r="F80" s="18">
+      <c r="F80" s="10">
         <v>18</v>
       </c>
     </row>
     <row r="81" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="17" t="s">
+      <c r="B81" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C81" s="17">
+      <c r="C81" s="9">
         <v>2017</v>
       </c>
-      <c r="D81" s="18">
+      <c r="D81" s="10">
         <v>203</v>
       </c>
-      <c r="E81" s="18">
+      <c r="E81" s="10">
         <v>95.9</v>
       </c>
-      <c r="F81" s="18">
+      <c r="F81" s="10">
         <v>107.1</v>
       </c>
     </row>
     <row r="82" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="17" t="s">
+      <c r="B82" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C82" s="17">
+      <c r="C82" s="9">
         <v>2017</v>
       </c>
-      <c r="D82" s="18">
+      <c r="D82" s="10">
         <v>23.6</v>
       </c>
-      <c r="E82" s="18">
+      <c r="E82" s="10">
         <v>13.5</v>
       </c>
-      <c r="F82" s="18">
+      <c r="F82" s="10">
         <v>10.1</v>
       </c>
     </row>
     <row r="83" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="17" t="s">
+      <c r="B83" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C83" s="17">
+      <c r="C83" s="9">
         <v>2017</v>
       </c>
-      <c r="D83" s="18">
+      <c r="D83" s="10">
         <v>186.8</v>
       </c>
-      <c r="E83" s="18">
+      <c r="E83" s="10">
         <v>96.3</v>
       </c>
-      <c r="F83" s="18">
+      <c r="F83" s="10">
         <v>90.6</v>
       </c>
     </row>
     <row r="84" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="17" t="s">
+      <c r="B84" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C84" s="17">
+      <c r="C84" s="9">
         <v>2017</v>
       </c>
-      <c r="D84" s="18">
+      <c r="D84" s="10">
         <v>27.3</v>
       </c>
-      <c r="E84" s="18">
+      <c r="E84" s="10">
         <v>11.7</v>
       </c>
-      <c r="F84" s="18">
+      <c r="F84" s="10">
         <v>15.6</v>
       </c>
     </row>
-    <row r="85" spans="2:6" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="15" t="s">
+    <row r="85" spans="2:6" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B85" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C85" s="15">
+      <c r="C85" s="7">
         <v>2017</v>
       </c>
-      <c r="D85" s="16">
+      <c r="D85" s="8">
         <v>525.79999999999995</v>
       </c>
-      <c r="E85" s="16">
+      <c r="E85" s="8">
         <v>278.5</v>
       </c>
-      <c r="F85" s="16">
+      <c r="F85" s="8">
         <v>247.3</v>
       </c>
     </row>
-    <row r="86" spans="2:6" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="15" t="s">
+    <row r="86" spans="2:6" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B86" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C86" s="15">
+      <c r="C86" s="7">
         <v>2017</v>
       </c>
-      <c r="D86" s="16">
+      <c r="D86" s="8">
         <v>50.2</v>
       </c>
-      <c r="E86" s="16">
+      <c r="E86" s="8">
         <v>33.799999999999997</v>
       </c>
-      <c r="F86" s="16">
+      <c r="F86" s="8">
         <v>16.399999999999999</v>
       </c>
     </row>
     <row r="87" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="17" t="s">
+      <c r="B87" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C87" s="17">
+      <c r="C87" s="9">
         <v>2017</v>
       </c>
-      <c r="D87" s="18">
+      <c r="D87" s="10">
         <v>13.8</v>
       </c>
-      <c r="E87" s="18">
+      <c r="E87" s="10">
         <v>8.1</v>
       </c>
-      <c r="F87" s="18">
+      <c r="F87" s="10">
         <v>5.8</v>
       </c>
     </row>
-    <row r="88" spans="2:6" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="15" t="s">
+    <row r="88" spans="2:6" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B88" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C88" s="15">
+      <c r="C88" s="7">
         <v>2017</v>
       </c>
-      <c r="D88" s="16">
+      <c r="D88" s="8">
         <v>31.4</v>
       </c>
-      <c r="E88" s="16">
+      <c r="E88" s="8">
         <v>12.8</v>
       </c>
-      <c r="F88" s="16">
+      <c r="F88" s="8">
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="89" spans="2:6" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B89" s="15" t="s">
+    <row r="89" spans="2:6" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B89" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C89" s="15">
+      <c r="C89" s="7">
         <v>2017</v>
       </c>
-      <c r="D89" s="16">
+      <c r="D89" s="8">
         <v>446.1</v>
       </c>
-      <c r="E89" s="16">
+      <c r="E89" s="8">
         <v>238.4</v>
       </c>
-      <c r="F89" s="16">
+      <c r="F89" s="8">
         <v>207.6</v>
       </c>
     </row>
     <row r="90" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="17" t="s">
+      <c r="B90" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C90" s="17">
+      <c r="C90" s="9">
         <v>2017</v>
       </c>
-      <c r="D90" s="18">
+      <c r="D90" s="10">
         <v>33.5</v>
       </c>
-      <c r="E90" s="18">
+      <c r="E90" s="10">
         <v>20.2</v>
       </c>
-      <c r="F90" s="18">
+      <c r="F90" s="10">
         <v>13.2</v>
       </c>
     </row>
     <row r="91" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="17" t="s">
+      <c r="B91" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C91" s="17">
+      <c r="C91" s="9">
         <v>2017</v>
       </c>
-      <c r="D91" s="18">
+      <c r="D91" s="10">
         <v>18.399999999999999</v>
       </c>
-      <c r="E91" s="18">
+      <c r="E91" s="10">
         <v>10.199999999999999</v>
       </c>
-      <c r="F91" s="18">
+      <c r="F91" s="10">
         <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="92" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="17" t="s">
+      <c r="B92" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C92" s="17">
+      <c r="C92" s="9">
         <v>2017</v>
       </c>
-      <c r="D92" s="18">
+      <c r="D92" s="10">
         <v>159.9</v>
       </c>
-      <c r="E92" s="18">
+      <c r="E92" s="10">
         <v>81.900000000000006</v>
       </c>
-      <c r="F92" s="18">
+      <c r="F92" s="10">
         <v>77.900000000000006</v>
       </c>
     </row>
     <row r="93" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="17" t="s">
+      <c r="B93" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C93" s="17">
+      <c r="C93" s="9">
         <v>2017</v>
       </c>
-      <c r="D93" s="18">
+      <c r="D93" s="10">
         <v>85.3</v>
       </c>
-      <c r="E93" s="18">
+      <c r="E93" s="10">
         <v>50</v>
       </c>
-      <c r="F93" s="18">
+      <c r="F93" s="10">
         <v>35.299999999999997</v>
       </c>
     </row>
     <row r="94" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="17" t="s">
+      <c r="B94" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C94" s="17">
+      <c r="C94" s="9">
         <v>2017</v>
       </c>
-      <c r="D94" s="18">
+      <c r="D94" s="10">
         <v>18.899999999999999</v>
       </c>
-      <c r="E94" s="18">
+      <c r="E94" s="10">
         <v>12.3</v>
       </c>
-      <c r="F94" s="18">
+      <c r="F94" s="10">
         <v>6.6</v>
       </c>
     </row>
     <row r="95" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="17" t="s">
+      <c r="B95" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C95" s="17">
+      <c r="C95" s="9">
         <v>2017</v>
       </c>
-      <c r="D95" s="18">
+      <c r="D95" s="10">
         <v>17.8</v>
       </c>
-      <c r="E95" s="18">
+      <c r="E95" s="10">
         <v>8.5</v>
       </c>
-      <c r="F95" s="18">
+      <c r="F95" s="10">
         <v>9.4</v>
       </c>
     </row>
     <row r="96" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="17" t="s">
+      <c r="B96" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C96" s="17">
+      <c r="C96" s="9">
         <v>2017</v>
       </c>
-      <c r="D96" s="18">
+      <c r="D96" s="10">
         <v>64.7</v>
       </c>
-      <c r="E96" s="18">
+      <c r="E96" s="10">
         <v>32.9</v>
       </c>
-      <c r="F96" s="18">
+      <c r="F96" s="10">
         <v>31.8</v>
       </c>
     </row>
-    <row r="97" spans="2:6" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B97" s="15" t="s">
+    <row r="97" spans="2:6" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B97" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C97" s="15">
+      <c r="C97" s="7">
         <v>2017</v>
       </c>
-      <c r="D97" s="16">
+      <c r="D97" s="8">
         <v>1656</v>
       </c>
-      <c r="E97" s="16">
+      <c r="E97" s="8">
         <v>864.9</v>
       </c>
-      <c r="F97" s="16">
+      <c r="F97" s="8">
         <v>791</v>
       </c>
     </row>
-    <row r="98" spans="2:6" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="15" t="s">
+    <row r="98" spans="2:6" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B98" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C98" s="15">
+      <c r="C98" s="7">
         <v>2015</v>
       </c>
-      <c r="D98" s="16">
+      <c r="D98" s="8">
         <v>883.3</v>
       </c>
-      <c r="E98" s="16">
+      <c r="E98" s="8">
         <v>450</v>
       </c>
-      <c r="F98" s="16">
+      <c r="F98" s="8">
         <v>433.3</v>
       </c>
     </row>
     <row r="99" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="17" t="s">
+      <c r="B99" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C99" s="17">
+      <c r="C99" s="9">
         <v>2015</v>
       </c>
-      <c r="D99" s="18">
+      <c r="D99" s="10">
         <v>192.9</v>
       </c>
-      <c r="E99" s="18">
+      <c r="E99" s="10">
         <v>99.1</v>
       </c>
-      <c r="F99" s="18">
+      <c r="F99" s="10">
         <v>93.9</v>
       </c>
     </row>
     <row r="100" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="17" t="s">
+      <c r="B100" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C100" s="17">
+      <c r="C100" s="9">
         <v>2015</v>
       </c>
-      <c r="D100" s="18">
+      <c r="D100" s="10">
         <v>163.1</v>
       </c>
-      <c r="E100" s="18">
+      <c r="E100" s="10">
         <v>80</v>
       </c>
-      <c r="F100" s="18">
+      <c r="F100" s="10">
         <v>83</v>
       </c>
     </row>
     <row r="101" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="17" t="s">
+      <c r="B101" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C101" s="17">
+      <c r="C101" s="9">
         <v>2015</v>
       </c>
-      <c r="D101" s="18">
+      <c r="D101" s="10">
         <v>153</v>
       </c>
-      <c r="E101" s="18">
+      <c r="E101" s="10">
         <v>73.400000000000006</v>
       </c>
-      <c r="F101" s="18">
+      <c r="F101" s="10">
         <v>79.599999999999994</v>
       </c>
     </row>
     <row r="102" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="17" t="s">
+      <c r="B102" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C102" s="17">
+      <c r="C102" s="9">
         <v>2015</v>
       </c>
-      <c r="D102" s="18">
+      <c r="D102" s="10">
         <v>45.8</v>
       </c>
-      <c r="E102" s="18">
+      <c r="E102" s="10">
         <v>26.3</v>
       </c>
-      <c r="F102" s="18">
+      <c r="F102" s="10">
         <v>19.5</v>
       </c>
     </row>
     <row r="103" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="17" t="s">
+      <c r="B103" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C103" s="17">
+      <c r="C103" s="9">
         <v>2015</v>
       </c>
-      <c r="D103" s="18">
+      <c r="D103" s="10">
         <v>34.1</v>
       </c>
-      <c r="E103" s="18">
+      <c r="E103" s="10">
         <v>20.9</v>
       </c>
-      <c r="F103" s="18">
+      <c r="F103" s="10">
         <v>13.3</v>
       </c>
     </row>
     <row r="104" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="17" t="s">
+      <c r="B104" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C104" s="17">
+      <c r="C104" s="9">
         <v>2015</v>
       </c>
-      <c r="D104" s="18">
+      <c r="D104" s="10">
         <v>24.9</v>
       </c>
-      <c r="E104" s="18">
+      <c r="E104" s="10">
         <v>12.4</v>
       </c>
-      <c r="F104" s="18">
+      <c r="F104" s="10">
         <v>12.6</v>
       </c>
     </row>
     <row r="105" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="17" t="s">
+      <c r="B105" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C105" s="17">
+      <c r="C105" s="9">
         <v>2015</v>
       </c>
-      <c r="D105" s="18">
+      <c r="D105" s="10">
         <v>24.6</v>
       </c>
-      <c r="E105" s="18">
+      <c r="E105" s="10">
         <v>12.6</v>
       </c>
-      <c r="F105" s="18">
+      <c r="F105" s="10">
         <v>12</v>
       </c>
     </row>
     <row r="106" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="17" t="s">
+      <c r="B106" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C106" s="17">
+      <c r="C106" s="9">
         <v>2015</v>
       </c>
-      <c r="D106" s="18">
+      <c r="D106" s="10">
         <v>20.7</v>
       </c>
-      <c r="E106" s="18">
+      <c r="E106" s="10">
         <v>11.7</v>
       </c>
-      <c r="F106" s="18">
+      <c r="F106" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="107" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="17" t="s">
+      <c r="B107" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C107" s="17">
+      <c r="C107" s="9">
         <v>2015</v>
       </c>
-      <c r="D107" s="18">
+      <c r="D107" s="10">
         <v>20.6</v>
       </c>
-      <c r="E107" s="18">
+      <c r="E107" s="10">
         <v>10.5</v>
       </c>
-      <c r="F107" s="18">
+      <c r="F107" s="10">
         <v>10.1</v>
       </c>
     </row>
     <row r="108" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="17" t="s">
+      <c r="B108" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C108" s="17">
+      <c r="C108" s="9">
         <v>2015</v>
       </c>
-      <c r="D108" s="18">
+      <c r="D108" s="10">
         <v>19.399999999999999</v>
       </c>
-      <c r="E108" s="18">
+      <c r="E108" s="10">
         <v>10.4</v>
       </c>
-      <c r="F108" s="18">
+      <c r="F108" s="10">
         <v>8.9</v>
       </c>
     </row>
     <row r="109" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="17" t="s">
+      <c r="B109" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C109" s="17">
+      <c r="C109" s="9">
         <v>2015</v>
       </c>
-      <c r="D109" s="18">
+      <c r="D109" s="10">
         <v>19</v>
       </c>
-      <c r="E109" s="18">
+      <c r="E109" s="10">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F109" s="18">
+      <c r="F109" s="10">
         <v>10.8</v>
       </c>
     </row>
     <row r="110" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="17" t="s">
+      <c r="B110" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C110" s="17">
+      <c r="C110" s="9">
         <v>2015</v>
       </c>
-      <c r="D110" s="18">
+      <c r="D110" s="10">
         <v>15.2</v>
       </c>
-      <c r="E110" s="18">
+      <c r="E110" s="10">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F110" s="18">
+      <c r="F110" s="10">
         <v>7</v>
       </c>
     </row>
     <row r="111" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="17" t="s">
+      <c r="B111" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C111" s="17">
+      <c r="C111" s="9">
         <v>2015</v>
       </c>
-      <c r="D111" s="18">
+      <c r="D111" s="10">
         <v>14.7</v>
       </c>
-      <c r="E111" s="18">
+      <c r="E111" s="10">
         <v>6.7</v>
       </c>
-      <c r="F111" s="18">
+      <c r="F111" s="10">
         <v>8.1</v>
       </c>
     </row>
     <row r="112" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="17" t="s">
+      <c r="B112" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C112" s="17">
+      <c r="C112" s="9">
         <v>2015</v>
       </c>
-      <c r="D112" s="18">
+      <c r="D112" s="10">
         <v>13.1</v>
       </c>
-      <c r="E112" s="18">
+      <c r="E112" s="10">
         <v>8.1</v>
       </c>
-      <c r="F112" s="18">
+      <c r="F112" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="2:6" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B113" s="15" t="s">
+    <row r="113" spans="2:6" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B113" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C113" s="15">
+      <c r="C113" s="7">
         <v>2015</v>
       </c>
-      <c r="D113" s="16">
+      <c r="D113" s="8">
         <v>398.6</v>
       </c>
-      <c r="E113" s="16">
+      <c r="E113" s="8">
         <v>208.7</v>
       </c>
-      <c r="F113" s="16">
+      <c r="F113" s="8">
         <v>189.9</v>
       </c>
     </row>
-    <row r="114" spans="2:6" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B114" s="15" t="s">
+    <row r="114" spans="2:6" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B114" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C114" s="15">
+      <c r="C114" s="7">
         <v>2015</v>
       </c>
-      <c r="D114" s="16">
+      <c r="D114" s="8">
         <v>28.7</v>
       </c>
-      <c r="E114" s="16">
+      <c r="E114" s="8">
         <v>17.5</v>
       </c>
-      <c r="F114" s="16">
+      <c r="F114" s="8">
         <v>11.3</v>
       </c>
     </row>
-    <row r="115" spans="2:6" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B115" s="15" t="s">
+    <row r="115" spans="2:6" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B115" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C115" s="15">
+      <c r="C115" s="7">
         <v>2015</v>
       </c>
-      <c r="D115" s="16">
+      <c r="D115" s="8">
         <v>23.5</v>
       </c>
-      <c r="E115" s="16">
+      <c r="E115" s="8">
         <v>10.8</v>
       </c>
-      <c r="F115" s="16">
+      <c r="F115" s="8">
         <v>12.7</v>
       </c>
     </row>
-    <row r="116" spans="2:6" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B116" s="15" t="s">
+    <row r="116" spans="2:6" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B116" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C116" s="15">
+      <c r="C116" s="7">
         <v>2015</v>
       </c>
-      <c r="D116" s="16">
+      <c r="D116" s="8">
         <v>310.3</v>
       </c>
-      <c r="E116" s="16">
+      <c r="E116" s="8">
         <v>152.6</v>
       </c>
-      <c r="F116" s="16">
+      <c r="F116" s="8">
         <v>157.69999999999999</v>
       </c>
     </row>
     <row r="117" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="17" t="s">
+      <c r="B117" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C117" s="17">
+      <c r="C117" s="9">
         <v>2015</v>
       </c>
-      <c r="D117" s="18">
+      <c r="D117" s="10">
         <v>138.4</v>
       </c>
-      <c r="E117" s="18">
+      <c r="E117" s="10">
         <v>65.400000000000006</v>
       </c>
-      <c r="F117" s="18">
+      <c r="F117" s="10">
         <v>72.900000000000006</v>
       </c>
     </row>
     <row r="118" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="17" t="s">
+      <c r="B118" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C118" s="17">
+      <c r="C118" s="9">
         <v>2015</v>
       </c>
-      <c r="D118" s="18">
+      <c r="D118" s="10">
         <v>23.2</v>
       </c>
-      <c r="E118" s="18">
+      <c r="E118" s="10">
         <v>12.9</v>
       </c>
-      <c r="F118" s="18">
+      <c r="F118" s="10">
         <v>10.3</v>
       </c>
     </row>
     <row r="119" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="17" t="s">
+      <c r="B119" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C119" s="17">
+      <c r="C119" s="9">
         <v>2015</v>
       </c>
-      <c r="D119" s="18">
+      <c r="D119" s="10">
         <v>19.3</v>
       </c>
-      <c r="E119" s="18">
+      <c r="E119" s="10">
         <v>9.4</v>
       </c>
-      <c r="F119" s="18">
+      <c r="F119" s="10">
         <v>9.9</v>
       </c>
     </row>
     <row r="120" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="17" t="s">
+      <c r="B120" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C120" s="17">
+      <c r="C120" s="9">
         <v>2015</v>
       </c>
-      <c r="D120" s="18">
+      <c r="D120" s="10">
         <v>17.600000000000001</v>
       </c>
-      <c r="E120" s="18">
+      <c r="E120" s="10">
         <v>9.1</v>
       </c>
-      <c r="F120" s="18">
+      <c r="F120" s="10">
         <v>8.6</v>
       </c>
     </row>
     <row r="121" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="17" t="s">
+      <c r="B121" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C121" s="17">
+      <c r="C121" s="9">
         <v>2015</v>
       </c>
-      <c r="D121" s="18">
+      <c r="D121" s="10">
         <v>15.7</v>
       </c>
-      <c r="E121" s="18">
+      <c r="E121" s="10">
         <v>8.6999999999999993</v>
       </c>
-      <c r="F121" s="18">
+      <c r="F121" s="10">
         <v>7</v>
       </c>
     </row>
     <row r="122" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="17" t="s">
+      <c r="B122" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C122" s="17">
+      <c r="C122" s="9">
         <v>2015</v>
       </c>
-      <c r="D122" s="18">
+      <c r="D122" s="10">
         <v>14.6</v>
       </c>
-      <c r="E122" s="18">
+      <c r="E122" s="10">
         <v>9.3000000000000007</v>
       </c>
-      <c r="F122" s="18">
+      <c r="F122" s="10">
         <v>5.4</v>
       </c>
     </row>
     <row r="123" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="17" t="s">
+      <c r="B123" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C123" s="17">
+      <c r="C123" s="9">
         <v>2015</v>
       </c>
-      <c r="D123" s="18">
+      <c r="D123" s="10">
         <v>154.4</v>
       </c>
-      <c r="E123" s="18">
+      <c r="E123" s="10">
         <v>81.3</v>
       </c>
-      <c r="F123" s="18">
+      <c r="F123" s="10">
         <v>73.099999999999994</v>
       </c>
     </row>
-    <row r="124" spans="2:6" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B124" s="15" t="s">
+    <row r="124" spans="2:6" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B124" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C124" s="15">
+      <c r="C124" s="7">
         <v>2015</v>
       </c>
-      <c r="D124" s="16">
+      <c r="D124" s="8">
         <v>1400.2</v>
       </c>
-      <c r="E124" s="16">
+      <c r="E124" s="8">
         <v>712.1</v>
       </c>
-      <c r="F124" s="16">
+      <c r="F124" s="8">
         <v>688.1</v>
       </c>
     </row>
-    <row r="125" spans="2:6" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B125" s="15" t="s">
+    <row r="125" spans="2:6" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B125" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C125" s="15">
+      <c r="C125" s="7">
         <v>2014</v>
       </c>
-      <c r="D125" s="16">
+      <c r="D125" s="8">
         <v>896</v>
       </c>
-      <c r="E125" s="16">
+      <c r="E125" s="8">
         <v>453</v>
       </c>
-      <c r="F125" s="16">
+      <c r="F125" s="8">
         <v>443</v>
       </c>
     </row>
     <row r="126" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="17" t="s">
+      <c r="B126" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C126" s="17">
+      <c r="C126" s="9">
         <v>2014</v>
       </c>
-      <c r="D126" s="18">
+      <c r="D126" s="10">
         <v>193</v>
       </c>
-      <c r="E126" s="18">
+      <c r="E126" s="10">
         <v>97.1</v>
       </c>
-      <c r="F126" s="18">
+      <c r="F126" s="10">
         <v>95.9</v>
       </c>
     </row>
     <row r="127" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="17" t="s">
+      <c r="B127" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C127" s="17">
+      <c r="C127" s="9">
         <v>2014</v>
       </c>
-      <c r="D127" s="18">
+      <c r="D127" s="10">
         <v>176.4</v>
       </c>
-      <c r="E127" s="18">
+      <c r="E127" s="10">
         <v>82.1</v>
       </c>
-      <c r="F127" s="18">
+      <c r="F127" s="10">
         <v>94.3</v>
       </c>
     </row>
     <row r="128" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="17" t="s">
+      <c r="B128" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C128" s="17">
+      <c r="C128" s="9">
         <v>2014</v>
       </c>
-      <c r="D128" s="18">
+      <c r="D128" s="10">
         <v>165.3</v>
       </c>
-      <c r="E128" s="18">
+      <c r="E128" s="10">
         <v>83.8</v>
       </c>
-      <c r="F128" s="18">
+      <c r="F128" s="10">
         <v>81.5</v>
       </c>
     </row>
     <row r="129" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="17" t="s">
+      <c r="B129" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C129" s="17">
+      <c r="C129" s="9">
         <v>2014</v>
       </c>
-      <c r="D129" s="18">
+      <c r="D129" s="10">
         <v>47.8</v>
       </c>
-      <c r="E129" s="18">
+      <c r="E129" s="10">
         <v>26.2</v>
       </c>
-      <c r="F129" s="18">
+      <c r="F129" s="10">
         <v>21.6</v>
       </c>
     </row>
     <row r="130" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="17" t="s">
+      <c r="B130" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C130" s="17">
+      <c r="C130" s="9">
         <v>2014</v>
       </c>
-      <c r="D130" s="18">
+      <c r="D130" s="10">
         <v>32.799999999999997</v>
       </c>
-      <c r="E130" s="18">
+      <c r="E130" s="10">
         <v>18.399999999999999</v>
       </c>
-      <c r="F130" s="18">
+      <c r="F130" s="10">
         <v>14.4</v>
       </c>
     </row>
     <row r="131" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="17" t="s">
+      <c r="B131" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C131" s="17">
+      <c r="C131" s="9">
         <v>2014</v>
       </c>
-      <c r="D131" s="18">
+      <c r="D131" s="10">
         <v>29.5</v>
       </c>
-      <c r="E131" s="18">
+      <c r="E131" s="10">
         <v>14.1</v>
       </c>
-      <c r="F131" s="18">
+      <c r="F131" s="10">
         <v>15.4</v>
       </c>
     </row>
     <row r="132" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="17" t="s">
+      <c r="B132" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C132" s="17">
+      <c r="C132" s="9">
         <v>2014</v>
       </c>
-      <c r="D132" s="18">
+      <c r="D132" s="10">
         <v>25.8</v>
       </c>
-      <c r="E132" s="18">
+      <c r="E132" s="10">
         <v>11.6</v>
       </c>
-      <c r="F132" s="18">
+      <c r="F132" s="10">
         <v>14.2</v>
       </c>
     </row>
     <row r="133" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="17" t="s">
+      <c r="B133" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C133" s="17">
+      <c r="C133" s="9">
         <v>2014</v>
       </c>
-      <c r="D133" s="18">
+      <c r="D133" s="10">
         <v>22.5</v>
       </c>
-      <c r="E133" s="18">
+      <c r="E133" s="10">
         <v>11.1</v>
       </c>
-      <c r="F133" s="18">
+      <c r="F133" s="10">
         <v>11.4</v>
       </c>
     </row>
     <row r="134" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="17" t="s">
+      <c r="B134" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C134" s="17">
+      <c r="C134" s="9">
         <v>2014</v>
       </c>
-      <c r="D134" s="18">
+      <c r="D134" s="10">
         <v>21.5</v>
       </c>
-      <c r="E134" s="18">
+      <c r="E134" s="10">
         <v>10.3</v>
       </c>
-      <c r="F134" s="18">
+      <c r="F134" s="10">
         <v>11.2</v>
       </c>
     </row>
     <row r="135" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="17" t="s">
+      <c r="B135" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C135" s="17">
+      <c r="C135" s="9">
         <v>2014</v>
       </c>
-      <c r="D135" s="18">
+      <c r="D135" s="10">
         <v>19.7</v>
       </c>
-      <c r="E135" s="18">
+      <c r="E135" s="10">
         <v>9.9</v>
       </c>
-      <c r="F135" s="18">
+      <c r="F135" s="10">
         <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="136" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="17" t="s">
+      <c r="B136" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C136" s="17">
+      <c r="C136" s="9">
         <v>2014</v>
       </c>
-      <c r="D136" s="18">
+      <c r="D136" s="10">
         <v>18.399999999999999</v>
       </c>
-      <c r="E136" s="18">
+      <c r="E136" s="10">
         <v>9.5</v>
       </c>
-      <c r="F136" s="18">
+      <c r="F136" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="137" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="17" t="s">
+      <c r="B137" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C137" s="17">
+      <c r="C137" s="9">
         <v>2014</v>
       </c>
-      <c r="D137" s="18">
+      <c r="D137" s="10">
         <v>15.3</v>
       </c>
-      <c r="E137" s="18">
+      <c r="E137" s="10">
         <v>9.3000000000000007</v>
       </c>
-      <c r="F137" s="18">
+      <c r="F137" s="10">
         <v>5.9</v>
       </c>
     </row>
     <row r="138" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="17" t="s">
+      <c r="B138" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C138" s="17">
+      <c r="C138" s="9">
         <v>2014</v>
       </c>
-      <c r="D138" s="18">
+      <c r="D138" s="10">
         <v>13.9</v>
       </c>
-      <c r="E138" s="18">
+      <c r="E138" s="10">
         <v>8.9</v>
       </c>
-      <c r="F138" s="18">
+      <c r="F138" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="139" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="17" t="s">
+      <c r="B139" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C139" s="17">
+      <c r="C139" s="9">
         <v>2014</v>
       </c>
-      <c r="D139" s="18">
+      <c r="D139" s="10">
         <v>11.9</v>
       </c>
-      <c r="E139" s="18">
+      <c r="E139" s="10">
         <v>6.8</v>
       </c>
-      <c r="F139" s="18">
+      <c r="F139" s="10">
         <v>5.2</v>
       </c>
     </row>
     <row r="140" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="17" t="s">
+      <c r="B140" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C140" s="17">
+      <c r="C140" s="9">
         <v>2014</v>
       </c>
-      <c r="D140" s="18">
+      <c r="D140" s="10">
         <v>11.1</v>
       </c>
-      <c r="E140" s="18">
+      <c r="E140" s="10">
         <v>7.1</v>
       </c>
-      <c r="F140" s="18" t="s">
+      <c r="F140" s="10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="141" spans="2:6" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B141" s="15" t="s">
+    <row r="141" spans="2:6" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B141" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C141" s="15">
+      <c r="C141" s="7">
         <v>2014</v>
       </c>
-      <c r="D141" s="16">
+      <c r="D141" s="8">
         <v>389</v>
       </c>
-      <c r="E141" s="16">
+      <c r="E141" s="8">
         <v>207</v>
       </c>
-      <c r="F141" s="16">
+      <c r="F141" s="8">
         <v>182</v>
       </c>
     </row>
-    <row r="142" spans="2:6" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B142" s="15" t="s">
+    <row r="142" spans="2:6" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B142" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C142" s="15">
+      <c r="C142" s="7">
         <v>2014</v>
       </c>
-      <c r="D142" s="16">
+      <c r="D142" s="8">
         <v>33</v>
       </c>
-      <c r="E142" s="16">
+      <c r="E142" s="8">
         <v>21</v>
       </c>
-      <c r="F142" s="16">
+      <c r="F142" s="8">
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="2:6" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B143" s="15" t="s">
+    <row r="143" spans="2:6" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B143" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C143" s="15">
+      <c r="C143" s="7">
         <v>2014</v>
       </c>
-      <c r="D143" s="16">
+      <c r="D143" s="8">
         <v>22</v>
       </c>
-      <c r="E143" s="16">
+      <c r="E143" s="8">
         <v>10</v>
       </c>
-      <c r="F143" s="16">
+      <c r="F143" s="8">
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="2:6" s="19" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B144" s="15" t="s">
+    <row r="144" spans="2:6" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B144" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C144" s="15">
+      <c r="C144" s="7">
         <v>2014</v>
       </c>
-      <c r="D144" s="16">
+      <c r="D144" s="8">
         <v>278</v>
       </c>
-      <c r="E144" s="16">
+      <c r="E144" s="8">
         <v>136</v>
       </c>
-      <c r="F144" s="16">
+      <c r="F144" s="8">
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="17" t="s">
+    <row r="145" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C145" s="17">
+      <c r="C145" s="9">
         <v>2014</v>
       </c>
-      <c r="D145" s="18">
+      <c r="D145" s="10">
         <v>129.19999999999999</v>
       </c>
-      <c r="E145" s="18">
+      <c r="E145" s="10">
         <v>62.6</v>
       </c>
-      <c r="F145" s="18">
+      <c r="F145" s="10">
         <v>66.7</v>
       </c>
     </row>
-    <row r="146" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="17" t="s">
+    <row r="146" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C146" s="17">
+      <c r="C146" s="9">
         <v>2014</v>
       </c>
-      <c r="D146" s="18">
+      <c r="D146" s="10">
         <v>17.8</v>
       </c>
-      <c r="E146" s="18">
+      <c r="E146" s="10">
         <v>8</v>
       </c>
-      <c r="F146" s="18">
+      <c r="F146" s="10">
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="147" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="17" t="s">
+    <row r="147" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C147" s="17">
+      <c r="C147" s="9">
         <v>2014</v>
       </c>
-      <c r="D147" s="18">
+      <c r="D147" s="10">
         <v>17.8</v>
       </c>
-      <c r="E147" s="18">
+      <c r="E147" s="10">
         <v>9.1</v>
       </c>
-      <c r="F147" s="18">
+      <c r="F147" s="10">
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="148" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="17" t="s">
+    <row r="148" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C148" s="17">
+      <c r="C148" s="9">
         <v>2014</v>
       </c>
-      <c r="D148" s="18">
+      <c r="D148" s="10">
         <v>13.3</v>
       </c>
-      <c r="E148" s="18">
+      <c r="E148" s="10">
         <v>6.6</v>
       </c>
-      <c r="F148" s="18">
+      <c r="F148" s="10">
         <v>6.7</v>
       </c>
     </row>
-    <row r="149" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="17" t="s">
+    <row r="149" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C149" s="17">
+      <c r="C149" s="9">
         <v>2014</v>
       </c>
-      <c r="D149" s="18">
+      <c r="D149" s="10">
         <v>10.7</v>
       </c>
-      <c r="E149" s="18">
+      <c r="E149" s="10">
         <v>6.4</v>
       </c>
-      <c r="F149" s="18" t="s">
+      <c r="F149" s="10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="150" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="17" t="s">
+    <row r="150" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C150" s="17">
+      <c r="C150" s="9">
         <v>2014</v>
       </c>
-      <c r="D150" s="18">
+      <c r="D150" s="10">
         <v>126</v>
       </c>
-      <c r="E150" s="18">
+      <c r="E150" s="10">
         <v>62</v>
       </c>
-      <c r="F150" s="18">
+      <c r="F150" s="10">
         <v>64</v>
       </c>
     </row>
-    <row r="151" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="15" t="s">
+    <row r="151" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C151" s="15">
+      <c r="C151" s="7">
         <v>2014</v>
       </c>
-      <c r="D151" s="16">
+      <c r="D151" s="8">
         <v>1356</v>
       </c>
-      <c r="E151" s="16">
+      <c r="E151" s="8">
         <v>682</v>
       </c>
-      <c r="F151" s="16">
+      <c r="F151" s="8">
         <v>674</v>
       </c>
     </row>
-    <row r="152" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="20"/>
-      <c r="C152" s="15"/>
-      <c r="D152" s="21"/>
-      <c r="E152" s="21"/>
-      <c r="F152" s="21"/>
-    </row>
-    <row r="153" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="22" t="str">
-        <f>'[1]2019_A13_Zeitreihe'!A151</f>
-        <v xml:space="preserve">1) Hochrechnung anhand der Bevölkerungsfortschreibung auf Basis des Zensus 2011. Die Hochrechnung für die Jahre vor 2011 sowie für bislang veröffentlichte Ergebnisse des Mikrozensus 2011-2013 basiert auf den fortgeschriebenen Ergebnissen der Volkszählung 1987. In 2016 erfolgte die Umstellung auf eine neue Mikrozensus-Stichprobe. Ab 2017 wird nur noch die Bevölkerung in Privathaushalten (ohne Gemeinschaftsunterkünfte) ausgewiesen. Dadurch ergibt sich jeweils eine eingeschränkte Vergleichbarkeit mit den Vorjahren. </v>
-      </c>
-      <c r="C153" s="15"/>
-      <c r="D153" s="21"/>
-      <c r="E153" s="21"/>
-      <c r="F153" s="21"/>
-    </row>
-    <row r="154" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="22" t="str">
+    <row r="152" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="12"/>
+      <c r="C152" s="7"/>
+      <c r="D152" s="13"/>
+      <c r="E152" s="13"/>
+      <c r="F152" s="13"/>
+    </row>
+    <row r="153" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C153" s="24"/>
+      <c r="D153" s="24"/>
+      <c r="E153" s="24"/>
+      <c r="F153" s="24"/>
+      <c r="G153" s="24"/>
+    </row>
+    <row r="154" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B154" s="14" t="str">
         <f>'[1]2019_A13_Zeitreihe'!A152</f>
         <v>2) Aufgeführt sind die 20 häufigsten Herkunftsländer der Frauen und Männer mit Migrationshintergrund im ausgewählten Jahr in Niedersachsen.</v>
       </c>
-      <c r="C154" s="15"/>
-      <c r="D154" s="21"/>
-      <c r="E154" s="21"/>
-      <c r="F154" s="21"/>
-    </row>
-    <row r="155" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="22" t="str">
+      <c r="C154" s="7"/>
+      <c r="D154" s="13"/>
+      <c r="E154" s="13"/>
+      <c r="F154" s="13"/>
+    </row>
+    <row r="155" spans="2:7" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="24" t="str">
         <f>'[1]2019_A13_Zeitreihe'!A153</f>
         <v>3) Seit dem Jahr 2018 wird im Mikrozensus der Migrationshintergrund im weiteren Sinne jährlich berichtet. Die in der Tabelle ab dem Jahr 2018 abgebildeten Daten zum Migrationshintergrund entsprechen dem Migrationshintergrund im weiteren Sinne, bis 2017 wird der Migrationshintergrund im engeren Sinne abgebildet. Die Vergleichbarkeit ist dadurch eingeschränkt.</v>
       </c>
-      <c r="C155" s="15"/>
-      <c r="D155" s="21"/>
-      <c r="E155" s="21"/>
-      <c r="F155" s="21"/>
-    </row>
-    <row r="156" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="17"/>
-      <c r="C156" s="15"/>
-      <c r="D156" s="21"/>
-      <c r="E156" s="21"/>
-      <c r="F156" s="21"/>
-    </row>
-    <row r="157" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="17" t="str">
+      <c r="C155" s="24"/>
+      <c r="D155" s="24"/>
+      <c r="E155" s="24"/>
+      <c r="F155" s="24"/>
+      <c r="G155" s="24"/>
+    </row>
+    <row r="156" spans="2:7" s="25" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B156" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C156" s="24"/>
+      <c r="D156" s="24"/>
+      <c r="E156" s="24"/>
+      <c r="F156" s="24"/>
+      <c r="G156" s="24"/>
+    </row>
+    <row r="157" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="9"/>
+      <c r="C157" s="7"/>
+      <c r="D157" s="13"/>
+      <c r="E157" s="13"/>
+      <c r="F157" s="13"/>
+    </row>
+    <row r="158" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="9" t="str">
         <f>'[1]2019_A13_Zeitreihe'!A155</f>
         <v>Quelle: Mikrozensus</v>
       </c>
-      <c r="C157" s="15"/>
-      <c r="D157" s="21"/>
-      <c r="E157" s="21"/>
-      <c r="F157" s="21"/>
-    </row>
-    <row r="158" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="15"/>
-      <c r="C158" s="15"/>
-      <c r="D158" s="21"/>
-      <c r="E158" s="21"/>
-      <c r="F158" s="21"/>
-    </row>
-    <row r="159" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="22" t="s">
+      <c r="C158" s="7"/>
+      <c r="D158" s="13"/>
+      <c r="E158" s="13"/>
+      <c r="F158" s="13"/>
+    </row>
+    <row r="159" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="7"/>
+      <c r="C159" s="7"/>
+      <c r="D159" s="13"/>
+      <c r="E159" s="13"/>
+      <c r="F159" s="13"/>
+    </row>
+    <row r="160" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B160" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C159" s="15"/>
-      <c r="D159" s="21"/>
-      <c r="E159" s="21"/>
-      <c r="F159" s="21"/>
-    </row>
-    <row r="160" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="22" t="s">
+      <c r="C160" s="7"/>
+      <c r="D160" s="13"/>
+      <c r="E160" s="13"/>
+      <c r="F160" s="13"/>
+    </row>
+    <row r="161" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C160" s="15"/>
-      <c r="D160" s="21"/>
-      <c r="E160" s="21"/>
-      <c r="F160" s="21"/>
-    </row>
-    <row r="161" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="22" t="s">
+      <c r="C161" s="7"/>
+      <c r="D161" s="13"/>
+      <c r="E161" s="13"/>
+      <c r="F161" s="13"/>
+    </row>
+    <row r="162" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B162" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C161" s="15"/>
-      <c r="D161" s="21"/>
-      <c r="E161" s="21"/>
-      <c r="F161" s="21"/>
-    </row>
-    <row r="162" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="23" t="s">
+      <c r="C162" s="7"/>
+      <c r="D162" s="13"/>
+      <c r="E162" s="13"/>
+      <c r="F162" s="13"/>
+    </row>
+    <row r="163" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C162" s="15"/>
-      <c r="D162" s="21"/>
-      <c r="E162" s="21"/>
-      <c r="F162" s="21"/>
-    </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B163" s="15"/>
-      <c r="C163" s="15"/>
-      <c r="D163" s="21"/>
-      <c r="E163" s="21"/>
-      <c r="F163" s="21"/>
+      <c r="C163" s="7"/>
+      <c r="D163" s="13"/>
+      <c r="E163" s="13"/>
+      <c r="F163" s="13"/>
+    </row>
+    <row r="164" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B164" s="7"/>
+      <c r="C164" s="7"/>
+      <c r="D164" s="13"/>
+      <c r="E164" s="13"/>
+      <c r="F164" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="B155:G155"/>
+    <mergeCell ref="B156:G156"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="D8:F8"/>
+    <mergeCell ref="B153:G153"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B162" r:id="rId1" xr:uid="{43C6007F-C24E-4CD1-9758-BBA63202D108}"/>
+    <hyperlink ref="B163" r:id="rId1" xr:uid="{43C6007F-C24E-4CD1-9758-BBA63202D108}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
